--- a/9 辅助工具/dota2/刀塔所有守卫信使缺少统计表.xlsx
+++ b/9 辅助工具/dota2/刀塔所有守卫信使缺少统计表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Maldives\9 辅助工具\dota2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Se\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3588A577-AF40-48AE-AA21-65F24B512CD9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{114D9094-7A6B-4FD4-BA0F-CD17C7205ED6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>序号</t>
   </si>
@@ -725,9 +725,6 @@
   </si>
   <si>
     <t>Lava Baby Roshan</t>
-  </si>
-  <si>
-    <t>Lockjaw the Boxhound</t>
   </si>
   <si>
     <t>Murrissey the Smeevil</t>
@@ -765,6 +762,142 @@
   </si>
   <si>
     <t>信仰之杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海守卫steam18求购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先觉之眼steam76求购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012 Polycount守卫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大神奖励</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多弗瑞特和罗西南特steam14.8求购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竭智法师与独角兽steam88求购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯金小神蚀者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基拉魔法师steam27求购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕奇｜斯塔士｜霍布steam92.5求购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚背兽steam50求购</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐士奇steam80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯金大嘴咬人箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧玉Roshan宝宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛绒胡小桃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗月Roshan宝宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄沙Roshan宝宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨鸟多多</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法飞毯小恶魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独特 黄金Roshan宝宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯金青昆咬人箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯正 纯金末日小子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯正 纯金赏金宝宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯正 纯金死亡小先知</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯正 纯金剧毒宝宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狗天猫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯正 寒冰Roshan宝宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯正 熔岩Roshan宝宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lockjaw the Boxhound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独特 咬人箱罗克</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独特 恶魔铁匠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独特 獭龙奥斯基</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铂金Roshan宝宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独特 铁嘴咬人箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上古 The Defense联赛第二赛季专属战犬</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1178,8 +1311,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1335,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1295,7 +1428,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1309,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1355,7 +1488,9 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1447,7 +1582,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1458,7 +1593,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -1642,7 +1777,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1653,11 +1788,11 @@
         <v>33</v>
       </c>
       <c r="D31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1668,7 +1803,7 @@
         <v>34</v>
       </c>
       <c r="D32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -1685,7 +1820,9 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -2017,7 +2154,7 @@
       </c>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2028,7 +2165,7 @@
         <v>58</v>
       </c>
       <c r="D56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="2"/>
     </row>
@@ -2077,7 +2214,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2088,7 +2225,7 @@
         <v>62</v>
       </c>
       <c r="D60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="2"/>
     </row>
@@ -2137,7 +2274,7 @@
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2148,7 +2285,7 @@
         <v>66</v>
       </c>
       <c r="D64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="2"/>
     </row>
@@ -2197,7 +2334,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2208,7 +2345,7 @@
         <v>70</v>
       </c>
       <c r="D68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="2"/>
     </row>
@@ -2225,7 +2362,9 @@
       <c r="D69" s="2">
         <v>0</v>
       </c>
-      <c r="E69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -2272,7 +2411,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -2283,7 +2422,7 @@
         <v>75</v>
       </c>
       <c r="D73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="2"/>
     </row>
@@ -2527,7 +2666,7 @@
       </c>
       <c r="E89" s="2"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>17</v>
       </c>
@@ -2538,7 +2677,7 @@
         <v>92</v>
       </c>
       <c r="D90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="2"/>
     </row>
@@ -2630,7 +2769,9 @@
       <c r="D96" s="2">
         <v>0</v>
       </c>
-      <c r="E96" s="2"/>
+      <c r="E96" s="2" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
@@ -2737,7 +2878,7 @@
       </c>
       <c r="E103" s="2"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>31</v>
       </c>
@@ -2748,11 +2889,11 @@
         <v>106</v>
       </c>
       <c r="D104" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" s="2"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>32</v>
       </c>
@@ -2763,7 +2904,7 @@
         <v>107</v>
       </c>
       <c r="D105" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" s="2"/>
     </row>
@@ -2900,7 +3041,9 @@
       <c r="D114" s="2">
         <v>0</v>
       </c>
-      <c r="E114" s="2"/>
+      <c r="E114" s="2" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
@@ -2947,7 +3090,7 @@
       </c>
       <c r="E117" s="2"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>45</v>
       </c>
@@ -2958,7 +3101,7 @@
         <v>120</v>
       </c>
       <c r="D118" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" s="2"/>
     </row>
@@ -2992,7 +3135,7 @@
       </c>
       <c r="E120" s="2"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>48</v>
       </c>
@@ -3003,7 +3146,7 @@
         <v>123</v>
       </c>
       <c r="D121" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" s="2"/>
     </row>
@@ -3020,7 +3163,9 @@
       <c r="D122" s="2">
         <v>0</v>
       </c>
-      <c r="E122" s="2"/>
+      <c r="E122" s="2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
@@ -3035,7 +3180,9 @@
       <c r="D123" s="2">
         <v>0</v>
       </c>
-      <c r="E123" s="2"/>
+      <c r="E123" s="2" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
@@ -3052,7 +3199,7 @@
       </c>
       <c r="E124" s="2"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>52</v>
       </c>
@@ -3063,7 +3210,7 @@
         <v>127</v>
       </c>
       <c r="D125" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" s="2"/>
     </row>
@@ -3140,9 +3287,11 @@
       <c r="D130" s="2">
         <v>0</v>
       </c>
-      <c r="E130" s="2"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E130" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>58</v>
       </c>
@@ -3153,7 +3302,7 @@
         <v>133</v>
       </c>
       <c r="D131" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" s="2"/>
     </row>
@@ -3247,7 +3396,7 @@
       </c>
       <c r="E137" s="2"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>65</v>
       </c>
@@ -3258,7 +3407,7 @@
         <v>140</v>
       </c>
       <c r="D138" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" s="2"/>
     </row>
@@ -3277,7 +3426,7 @@
       </c>
       <c r="E139" s="2"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>67</v>
       </c>
@@ -3288,7 +3437,7 @@
         <v>142</v>
       </c>
       <c r="D140" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" s="2"/>
     </row>
@@ -3322,7 +3471,7 @@
       </c>
       <c r="E142" s="2"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>70</v>
       </c>
@@ -3333,7 +3482,7 @@
         <v>145</v>
       </c>
       <c r="D143" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143" s="2"/>
     </row>
@@ -3412,7 +3561,7 @@
       </c>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>76</v>
       </c>
@@ -3423,7 +3572,7 @@
         <v>151</v>
       </c>
       <c r="D149" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E149" s="2"/>
     </row>
@@ -3440,7 +3589,9 @@
       <c r="D150" s="2">
         <v>0</v>
       </c>
-      <c r="E150" s="2"/>
+      <c r="E150" s="2" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
@@ -3472,7 +3623,7 @@
       </c>
       <c r="E152" s="2"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>80</v>
       </c>
@@ -3483,7 +3634,7 @@
         <v>155</v>
       </c>
       <c r="D153" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" s="2"/>
     </row>
@@ -3637,7 +3788,7 @@
       </c>
       <c r="E163" s="2"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>91</v>
       </c>
@@ -3648,11 +3799,11 @@
         <v>166</v>
       </c>
       <c r="D164" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" s="2"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>92</v>
       </c>
@@ -3663,7 +3814,7 @@
         <v>167</v>
       </c>
       <c r="D165" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E165" s="2"/>
     </row>
@@ -3680,7 +3831,9 @@
       <c r="D166" s="2">
         <v>0</v>
       </c>
-      <c r="E166" s="2"/>
+      <c r="E166" s="2" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
@@ -3697,7 +3850,7 @@
       </c>
       <c r="E167" s="2"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>95</v>
       </c>
@@ -3708,7 +3861,7 @@
         <v>170</v>
       </c>
       <c r="D168" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" s="2"/>
     </row>
@@ -3862,7 +4015,7 @@
       </c>
       <c r="E178" s="2"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>106</v>
       </c>
@@ -3873,11 +4026,11 @@
         <v>181</v>
       </c>
       <c r="D179" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E179" s="2"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>107</v>
       </c>
@@ -3888,7 +4041,7 @@
         <v>182</v>
       </c>
       <c r="D180" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180" s="2"/>
     </row>
@@ -3922,7 +4075,7 @@
       </c>
       <c r="E182" s="2"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>110</v>
       </c>
@@ -3933,7 +4086,7 @@
         <v>185</v>
       </c>
       <c r="D183" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" s="2"/>
     </row>
@@ -3965,7 +4118,9 @@
       <c r="D185" s="2">
         <v>0</v>
       </c>
-      <c r="E185" s="2"/>
+      <c r="E185" s="2" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
@@ -3997,7 +4152,7 @@
       </c>
       <c r="E187" s="2"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>115</v>
       </c>
@@ -4008,7 +4163,7 @@
         <v>190</v>
       </c>
       <c r="D188" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E188" s="2"/>
     </row>
@@ -4025,7 +4180,9 @@
       <c r="D189" s="2">
         <v>0</v>
       </c>
-      <c r="E189" s="2"/>
+      <c r="E189" s="2" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
@@ -4100,9 +4257,11 @@
       <c r="D194" s="2">
         <v>0</v>
       </c>
-      <c r="E194" s="2"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E194" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>122</v>
       </c>
@@ -4113,7 +4272,7 @@
         <v>197</v>
       </c>
       <c r="D195" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" s="2"/>
     </row>
@@ -4132,7 +4291,7 @@
       </c>
       <c r="E196" s="2"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>124</v>
       </c>
@@ -4143,7 +4302,7 @@
         <v>199</v>
       </c>
       <c r="D197" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E197" s="2"/>
     </row>
@@ -4162,7 +4321,7 @@
       </c>
       <c r="E198" s="2"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>126</v>
       </c>
@@ -4173,7 +4332,7 @@
         <v>201</v>
       </c>
       <c r="D199" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E199" s="2"/>
     </row>
@@ -4265,7 +4424,9 @@
       <c r="D205" s="2">
         <v>0</v>
       </c>
-      <c r="E205" s="2"/>
+      <c r="E205" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
@@ -4282,7 +4443,7 @@
       </c>
       <c r="E206" s="2"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>134</v>
       </c>
@@ -4293,7 +4454,7 @@
         <v>209</v>
       </c>
       <c r="D207" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E207" s="2"/>
     </row>
@@ -4327,7 +4488,7 @@
       </c>
       <c r="E209" s="2"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>137</v>
       </c>
@@ -4338,7 +4499,7 @@
         <v>212</v>
       </c>
       <c r="D210" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E210" s="2"/>
     </row>
@@ -4385,7 +4546,9 @@
       <c r="D213" s="2">
         <v>0</v>
       </c>
-      <c r="E213" s="2"/>
+      <c r="E213" s="2" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
@@ -4400,7 +4563,9 @@
       <c r="D214" s="2">
         <v>0</v>
       </c>
-      <c r="E214" s="2"/>
+      <c r="E214" s="2" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
@@ -4430,9 +4595,11 @@
       <c r="D216" s="2">
         <v>0</v>
       </c>
-      <c r="E216" s="2"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E216" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>144</v>
       </c>
@@ -4443,7 +4610,7 @@
         <v>219</v>
       </c>
       <c r="D217" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217" s="2"/>
     </row>
@@ -4475,7 +4642,9 @@
       <c r="D219" s="2">
         <v>0</v>
       </c>
-      <c r="E219" s="2"/>
+      <c r="E219" s="2" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
@@ -4490,7 +4659,9 @@
       <c r="D220" s="2">
         <v>0</v>
       </c>
-      <c r="E220" s="2"/>
+      <c r="E220" s="2" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
@@ -4505,7 +4676,9 @@
       <c r="D221" s="2">
         <v>0</v>
       </c>
-      <c r="E221" s="2"/>
+      <c r="E221" s="2" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
@@ -4520,7 +4693,9 @@
       <c r="D222" s="2">
         <v>0</v>
       </c>
-      <c r="E222" s="2"/>
+      <c r="E222" s="2" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
@@ -4550,7 +4725,9 @@
       <c r="D224" s="2">
         <v>0</v>
       </c>
-      <c r="E224" s="2"/>
+      <c r="E224" s="2" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
@@ -4565,7 +4742,9 @@
       <c r="D225" s="2">
         <v>0</v>
       </c>
-      <c r="E225" s="2"/>
+      <c r="E225" s="2" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
@@ -4580,7 +4759,9 @@
       <c r="D226" s="2">
         <v>0</v>
       </c>
-      <c r="E226" s="2"/>
+      <c r="E226" s="2" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
@@ -4595,7 +4776,9 @@
       <c r="D227" s="2">
         <v>0</v>
       </c>
-      <c r="E227" s="2"/>
+      <c r="E227" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
@@ -4625,7 +4808,9 @@
       <c r="D229" s="2">
         <v>0</v>
       </c>
-      <c r="E229" s="2"/>
+      <c r="E229" s="2" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
@@ -4655,7 +4840,9 @@
       <c r="D231" s="2">
         <v>0</v>
       </c>
-      <c r="E231" s="2"/>
+      <c r="E231" s="2" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
@@ -4665,12 +4852,14 @@
         <v>1</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="D232" s="2">
         <v>0</v>
       </c>
-      <c r="E232" s="2"/>
+      <c r="E232" s="2" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
@@ -4680,12 +4869,14 @@
         <v>1</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D233" s="2">
         <v>0</v>
       </c>
-      <c r="E233" s="2"/>
+      <c r="E233" s="2" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
@@ -4695,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D234" s="2">
         <v>1</v>
@@ -4710,12 +4901,14 @@
         <v>1</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D235" s="2">
         <v>0</v>
       </c>
-      <c r="E235" s="2"/>
+      <c r="E235" s="2" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
@@ -4725,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D236" s="2">
         <v>1</v>
@@ -4740,12 +4933,14 @@
         <v>1</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D237" s="2">
         <v>0</v>
       </c>
-      <c r="E237" s="2"/>
+      <c r="E237" s="2" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
@@ -4755,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D238" s="2">
         <v>1</v>
@@ -4770,12 +4965,14 @@
         <v>1</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D239" s="2">
         <v>0</v>
       </c>
-      <c r="E239" s="2"/>
+      <c r="E239" s="2" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
@@ -4785,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D240" s="2">
         <v>1</v>
@@ -4800,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D241" s="2">
         <v>1</v>
@@ -4815,12 +5012,14 @@
         <v>1</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D242" s="2">
         <v>0</v>
       </c>
-      <c r="E242" s="2"/>
+      <c r="E242" s="2" t="s">
+        <v>279</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E242" xr:uid="{CB96DCBD-350D-4CF7-8F0D-BD12F6A9C909}">
